--- a/03/data_enrichment.xlsx
+++ b/03/data_enrichment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelica/Books/O'Reilly - AI with Excel/Learning-Generative-AI-Tools-for-Excel/03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610B86FB-4BBF-D247-98AA-4ABD1443805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91A05BF-6E93-7242-BE98-0A4CC1E2D592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15780" xr2:uid="{B3AC0E17-5A36-9B41-AE24-A7AFD37B9CCD}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15780" activeTab="1" xr2:uid="{B3AC0E17-5A36-9B41-AE24-A7AFD37B9CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Cole Nussbaumer Knaflic</t>
   </si>
   <si>
-    <t>The Data Storytelling Handbook</t>
-  </si>
-  <si>
     <t>Kat Greenbrook</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>To read</t>
+  </si>
+  <si>
+    <t>The Data Storytelling's Handbook</t>
   </si>
 </sst>
 </file>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F63C812-1337-2543-84B3-2F2E63D27FF1}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -755,15 +755,15 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7DA737-4CF5-194D-980C-94931059332D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,15 +797,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="5">
         <v>2023</v>

--- a/03/data_enrichment.xlsx
+++ b/03/data_enrichment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelica/Books/O'Reilly - AI with Excel/Learning-Generative-AI-Tools-for-Excel/03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angelica\Documents\Work\Books\OReilly - Excel\Learning-Generative-AI-Tools-for-Excel\03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91A05BF-6E93-7242-BE98-0A4CC1E2D592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C25B6CB-85BB-4B1A-BDFF-67716F9D54EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15780" activeTab="1" xr2:uid="{B3AC0E17-5A36-9B41-AE24-A7AFD37B9CCD}"/>
+    <workbookView xWindow="6090" yWindow="3300" windowWidth="28740" windowHeight="15350" xr2:uid="{B3AC0E17-5A36-9B41-AE24-A7AFD37B9CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>To read</t>
   </si>
   <si>
-    <t>The Data Storytelling's Handbook</t>
+    <t>The Data Storyteller's Handbook</t>
   </si>
 </sst>
 </file>
@@ -716,17 +716,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F63C812-1337-2543-84B3-2F2E63D27FF1}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -742,7 +742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -750,7 +750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -758,7 +758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -779,17 +779,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7DA737-4CF5-194D-980C-94931059332D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -811,7 +811,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -822,7 +822,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -833,7 +833,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
